--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T12:52:48+00:00</t>
+    <t>2024-11-18T12:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T12:56:06+00:00</t>
+    <t>2024-11-18T12:56:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T12:56:48+00:00</t>
+    <t>2024-11-18T12:58:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T12:58:10+00:00</t>
+    <t>2024-11-18T13:14:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T13:14:16+00:00</t>
+    <t>2024-11-18T13:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T13:14:28+00:00</t>
+    <t>2024-11-18T13:16:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
